--- a/M2_TéoKretz_Examen/M2_KretzTéo_Grilles_Notations.xlsx
+++ b/M2_TéoKretz_Examen/M2_KretzTéo_Grilles_Notations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teokr\OneDrive\Bureau\M2_TéoKretz_Examen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F30671B-DF2E-40EA-B4D1-C77FB25D93D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C558E9F7-AA14-42E4-89B4-DB6B114B654E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{3CBFC80E-3F7B-4BEF-879F-ACDFE7FB635B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{3CBFC80E-3F7B-4BEF-879F-ACDFE7FB635B}"/>
   </bookViews>
   <sheets>
     <sheet name="DONNEES" sheetId="1" r:id="rId1"/>
@@ -358,10 +358,6 @@
  pour un serious game à le droit d'être mis de côté pour son tutoriel afin que le joueur sache comment jouer et donc comment apprendre.</t>
   </si>
   <si>
-    <t>Une prise en  main efficace avec son gameplay point'n clic, la lisibilité est très bonne malgré
- quelques difficultés à bien voir le blanc sur bleu clair lors des phases de recherches (du moins pour un daltonien)</t>
-  </si>
-  <si>
     <t>Le jeu offre un rythme assez agréable entre narration et phase de gameplay le tout découpé en chapitre permettant une progression relativement fluide. Le grand problème provient de la grande facilité durant toute la première moitié du jeu, notamment car il a tendance à donner la réponse qu'il attend du joueur directement, sans le laisser déduire  transformant alors l'expérience en livre interactif sans grand challenge.</t>
   </si>
   <si>
@@ -369,10 +365,6 @@
   </si>
   <si>
     <t>L'intégration des mécaniques est bien réalisées en général, le gameplay est similaire aux actions que le joueur devrait faire dans "la vraie vie" pour ce genre de thème tout en simplifiant la chose quelque peu pour rendre cela plus amusant et simple. Néanmoins durant les phases de gameplay, le jeu a tendance à être très explicite et à ne pas laisser jouer le joueur pour expliquer. Il aurait été préférable d'avoir une second gameplay pour les explications, laissant le jeu faire les liens logiques en jouant et non juste en lisant</t>
-  </si>
-  <si>
-    <t>Les briques choisis pour le gameplay sérieux et le gameplay ludiques étant les mêmes 
-car un seul gameplay est proposé et un très bon point</t>
   </si>
   <si>
     <t>Entre "la vraie vie" et le jeu, il semble manquer l'idée de la gestion des informations trouvées, 
@@ -479,6 +471,14 @@
   </si>
   <si>
     <t>Le jeu n'intervient qu'à la toute fin pour expliciter son message mais le reste étant vécu par le joueur, la sensibilisation me semble efficace bien que pour que le jeu soit trop court et un peu pauvre en mécanique pour être au maximum de son efficacité</t>
+  </si>
+  <si>
+    <t>Les briques choisis pour le gameplay sérieux et le gameplay ludiques étant les mêmes 
+car un seul gameplay est proposé et un très bon point mais le manque de mécanique rend le jeu lassant</t>
+  </si>
+  <si>
+    <t>Une prise en  main efficace avec son gameplay point'n clic, la lisibilité est très bonne malgré
+ quelques difficultés à bien voir le blanc sur bleu clair lors des phases de recherches (du moins pour un daltonien). De plus la phase de confrotation pour des joueurs plus casua peut être assez complexe.</t>
   </si>
 </sst>
 </file>
@@ -1016,6 +1016,90 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,7 +1107,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1064,6 +1148,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,93 +1159,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2122,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1515D31-7A71-45E9-B57D-ADACFF02C23D}">
   <dimension ref="A1:T286"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,23 +2141,23 @@
   <sheetData>
     <row r="1" spans="2:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="3"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="2:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="4"/>
       <c r="F3" s="10" t="s">
         <v>41</v>
@@ -2176,54 +2176,54 @@
       <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="2:9" ht="86.25" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>109</v>
+      <c r="C5" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="D5" s="5"/>
       <c r="F5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="35">
         <v>12</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="36">
         <v>10</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="51.75" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="27" t="s">
         <v>81</v>
       </c>
       <c r="D6" s="5"/>
       <c r="F6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="35">
         <v>8</v>
       </c>
-      <c r="H6" s="56">
-        <v>7</v>
+      <c r="H6" s="36">
+        <v>6</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>96</v>
@@ -2233,17 +2233,17 @@
       <c r="B7" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="27" t="s">
         <v>80</v>
       </c>
       <c r="D7" s="5"/>
       <c r="F7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="35">
         <v>8</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="36">
         <v>6</v>
       </c>
       <c r="I7" s="16" t="s">
@@ -2254,17 +2254,17 @@
       <c r="B8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>111</v>
+      <c r="C8" s="31" t="s">
+        <v>109</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="35">
         <v>2</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="36">
         <v>0</v>
       </c>
       <c r="I8" s="15" t="s">
@@ -2272,147 +2272,147 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="69" x14ac:dyDescent="0.3">
-      <c r="B9" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="5"/>
       <c r="F9" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="35">
         <v>10</v>
       </c>
-      <c r="H9" s="56">
-        <v>6</v>
+      <c r="H9" s="36">
+        <v>4</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="30"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="37">
         <f>SUM(G5:G9)</f>
         <v>40</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="37">
         <f>SUM(H5:H9)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="5"/>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="2:9" ht="103.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="5"/>
       <c r="F12" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="35">
         <v>20</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="36">
         <v>12</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="69" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="5"/>
       <c r="F13" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="35">
         <v>10</v>
       </c>
-      <c r="H13" s="56">
-        <v>10</v>
+      <c r="H13" s="36">
+        <v>8</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="69" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="46"/>
+    <row r="14" spans="2:9" ht="86.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="58"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="5"/>
       <c r="F14" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="35">
         <v>10</v>
       </c>
-      <c r="H14" s="56">
-        <v>9</v>
+      <c r="H14" s="36">
+        <v>8</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="30"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="5"/>
       <c r="F15" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="57">
+      <c r="G15" s="37">
         <f>SUM(G12:G14)</f>
         <v>40</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="37">
         <f>SUM(H12:H14)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I15" s="18"/>
     </row>
     <row r="16" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="31"/>
-      <c r="C16" s="47"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="5"/>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="2:9" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="37"/>
+      <c r="C17" s="65"/>
       <c r="F17" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="55">
+      <c r="G17" s="35">
         <v>10</v>
       </c>
-      <c r="H17" s="56">
+      <c r="H17" s="36">
         <v>6</v>
       </c>
       <c r="I17" s="16" t="s">
@@ -2423,39 +2423,39 @@
       <c r="B18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="35">
         <v>20</v>
       </c>
-      <c r="H18" s="56">
-        <v>15</v>
+      <c r="H18" s="36">
+        <v>10</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="29" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="55">
+      <c r="G19" s="35">
         <f>SUM(G20:G21)</f>
         <v>50</v>
       </c>
-      <c r="H19" s="56">
+      <c r="H19" s="36">
         <f>SUM(H20:H21)</f>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I19" s="15"/>
     </row>
@@ -2463,79 +2463,79 @@
       <c r="B20" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="29" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="38">
         <v>25</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="39">
         <v>15</v>
       </c>
       <c r="I20" s="23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="34.5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>110</v>
+      <c r="C21" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="F21" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="38">
         <v>25</v>
       </c>
-      <c r="H21" s="59">
-        <v>25</v>
+      <c r="H21" s="39">
+        <v>15</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="F22" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="55">
+      <c r="C22" s="29"/>
+      <c r="F22" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="35">
         <v>40</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="36">
         <v>30</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="29"/>
       <c r="F23" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="37">
         <f>SUM(G17:G19)+G22</f>
         <v>120</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="37">
         <f>SUM(H17:H19)+H22</f>
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I23" s="22"/>
     </row>
     <row r="24" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="29"/>
       <c r="F24" s="20" t="s">
         <v>95</v>
       </c>
@@ -2545,57 +2545,57 @@
       </c>
       <c r="H24" s="13">
         <f>SUM(H10,H15,H23)</f>
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
-      <c r="C25" s="48"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="45"/>
+      <c r="B27" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="74"/>
     </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="46"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C30" s="47"/>
+      <c r="B30" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="28"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="45"/>
+      <c r="C31" s="74"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="27" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2603,7 +2603,7 @@
       <c r="B33" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="27" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2611,143 +2611,143 @@
       <c r="B34" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="32" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="37"/>
+      <c r="C35" s="65"/>
     </row>
     <row r="36" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
-      <c r="C37" s="48"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="C38" s="48"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="C40" s="48"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="29"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="48"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="29"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="48"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="29"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
-      <c r="C43" s="48"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="29"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="48" t="s">
+      <c r="C44" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="C45" s="48" t="s">
+      <c r="B45" s="55"/>
+      <c r="C45" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="48"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="29"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
-      <c r="C47" s="48"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="29"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="27"/>
-      <c r="C48" s="48"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="29"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
-      <c r="C49" s="48"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="48"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="29"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="48"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="29"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="C52" s="48"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="29"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
-      <c r="C53" s="48"/>
+      <c r="B53" s="55"/>
+      <c r="C53" s="29"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="27"/>
-      <c r="C55" s="48" t="s">
+      <c r="B55" s="55"/>
+      <c r="C55" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="27"/>
-      <c r="C56" s="48"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="29"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="27"/>
-      <c r="C57" s="48"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="29"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="27"/>
-      <c r="C58" s="48"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="29"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="27"/>
-      <c r="C59" s="48"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="29"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
-      <c r="C60" s="48"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="29"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="27"/>
-      <c r="C61" s="48"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="29"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="C62" s="48"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="29"/>
     </row>
     <row r="63" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="28"/>
-      <c r="C63" s="49"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="30"/>
     </row>
     <row r="64" spans="2:3" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3029,7 +3029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9B5499-39C4-436B-A203-29847CC68F6B}">
   <dimension ref="A1:T291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -3048,23 +3048,23 @@
   <sheetData>
     <row r="1" spans="2:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="70"/>
       <c r="D2" s="3"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="34"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
     </row>
     <row r="3" spans="2:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="4"/>
       <c r="F3" s="10" t="s">
         <v>41</v>
@@ -3083,95 +3083,95 @@
       <c r="B4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>116</v>
+      <c r="C4" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
     </row>
     <row r="5" spans="2:9" ht="66" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>117</v>
+      <c r="C5" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="D5" s="5"/>
       <c r="F5" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="35">
         <v>12</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="36">
         <v>8</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>120</v>
+      <c r="C6" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="D6" s="5"/>
       <c r="F6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="35">
         <v>7</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="36">
         <v>0</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>118</v>
+      <c r="C7" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="D7" s="5"/>
       <c r="F7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="35">
         <v>7</v>
       </c>
-      <c r="H7" s="56">
+      <c r="H7" s="36">
         <v>0</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>119</v>
+      <c r="C8" s="31" t="s">
+        <v>117</v>
       </c>
       <c r="D8" s="5"/>
       <c r="F8" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="35">
         <v>2</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="36">
         <v>0</v>
       </c>
       <c r="I8" s="15" t="s">
@@ -3179,197 +3179,197 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="5"/>
       <c r="F9" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="35">
         <v>12</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="36">
         <v>10</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="61"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="5"/>
       <c r="F10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="37">
         <f>SUM(G5:G9)</f>
         <v>40</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="37">
         <f>SUM(H5:H9)</f>
         <v>18</v>
       </c>
       <c r="I10" s="18"/>
     </row>
     <row r="11" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="61"/>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="F11" s="38" t="s">
+      <c r="F11" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="68"/>
     </row>
     <row r="12" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="5"/>
       <c r="F12" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="55">
+      <c r="G12" s="35">
         <v>20</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="36">
         <f>SUM(H13:H14)</f>
         <v>17</v>
       </c>
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="2:9" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="61"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="5"/>
       <c r="F13" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="58">
+        <v>119</v>
+      </c>
+      <c r="G13" s="38">
         <v>10</v>
       </c>
-      <c r="H13" s="59">
+      <c r="H13" s="39">
         <v>10</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="86.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="61"/>
-      <c r="C14" s="46"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="5"/>
       <c r="F14" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="58">
+        <v>120</v>
+      </c>
+      <c r="G14" s="38">
         <v>10</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="39">
         <v>7</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="61"/>
-      <c r="C15" s="46"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="5"/>
       <c r="F15" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="35">
         <f>SUM(G16:G17)</f>
         <v>12</v>
       </c>
-      <c r="H15" s="56">
+      <c r="H15" s="36">
         <v>12</v>
       </c>
       <c r="I15" s="16"/>
     </row>
     <row r="16" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="61"/>
-      <c r="C16" s="46"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="5"/>
       <c r="F16" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="G16" s="58">
+        <v>121</v>
+      </c>
+      <c r="G16" s="38">
         <v>6</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="39">
         <v>6</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="34.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="5"/>
       <c r="F17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="58">
+      <c r="G17" s="38">
         <v>6</v>
       </c>
-      <c r="H17" s="59">
+      <c r="H17" s="39">
         <v>6</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="34.5" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="5"/>
       <c r="F18" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="55">
+      <c r="G18" s="35">
         <v>8</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="36">
         <v>8</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="5"/>
       <c r="F19" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="37">
         <f>SUM(G12,G15,G18)</f>
         <v>40</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="37">
         <f>SUM(H12,H15,H18)</f>
         <v>37</v>
       </c>
@@ -3379,151 +3379,151 @@
       <c r="B20" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="F20" s="38" t="s">
+      <c r="F20" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="40"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
     </row>
     <row r="21" spans="2:9" ht="51.75" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>110</v>
+      <c r="C21" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="55">
+      <c r="G21" s="35">
         <v>10</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="36">
         <v>10</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="69" x14ac:dyDescent="0.25">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="48"/>
+      <c r="C22" s="29"/>
       <c r="F22" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="55">
+      <c r="G22" s="35">
         <v>20</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="36">
         <v>15</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="30"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="29"/>
       <c r="F23" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="35">
         <v>40</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="36">
         <f>SUM(H24:H25)</f>
         <v>50</v>
       </c>
       <c r="I23" s="15"/>
     </row>
     <row r="24" spans="2:9" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="30"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="29"/>
       <c r="F24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G24" s="38">
         <v>20</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="39">
         <v>25</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="43"/>
-      <c r="C25" s="48"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="29"/>
       <c r="F25" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="38">
         <v>20</v>
       </c>
-      <c r="H25" s="59">
+      <c r="H25" s="39">
         <v>25</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F26" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="55">
+      <c r="F26" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="35">
         <v>30</v>
       </c>
-      <c r="H26" s="56">
+      <c r="H26" s="36">
         <v>30</v>
       </c>
       <c r="I26" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="F27" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="G27" s="49">
+        <v>20</v>
+      </c>
+      <c r="H27" s="50">
+        <v>12</v>
+      </c>
+      <c r="I27" s="51" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="F27" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="G27" s="69">
-        <v>20</v>
-      </c>
-      <c r="H27" s="70">
-        <v>12</v>
-      </c>
-      <c r="I27" s="71" t="s">
-        <v>140</v>
-      </c>
-    </row>
     <row r="28" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="C28" s="68"/>
+      <c r="B28" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="48"/>
       <c r="F28" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="37">
         <f>SUM(G21:G23,G26:G27)</f>
         <v>120</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="37">
         <f>SUM(H21:H23)+H26</f>
         <v>105</v>
       </c>
@@ -3533,7 +3533,7 @@
       <c r="B29" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="27"/>
       <c r="F29" s="20" t="s">
         <v>95</v>
       </c>
@@ -3551,25 +3551,25 @@
       <c r="B30" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C30" s="46"/>
+      <c r="C30" s="27"/>
     </row>
     <row r="31" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="47"/>
+      <c r="B31" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="28"/>
     </row>
     <row r="32" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="68"/>
+      <c r="C32" s="48"/>
     </row>
     <row r="33" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="27" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       <c r="B34" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="27" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3585,151 +3585,151 @@
       <c r="B35" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C35" s="52" t="s">
+      <c r="C35" s="32" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="64"/>
+      <c r="C36" s="44"/>
     </row>
     <row r="37" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="61"/>
-      <c r="C38" s="48" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="29" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="61"/>
-      <c r="C39" s="48" t="s">
+      <c r="B39" s="41"/>
+      <c r="C39" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="61"/>
-      <c r="C40" s="48"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="29"/>
     </row>
     <row r="41" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="61"/>
-      <c r="C41" s="48"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="29"/>
     </row>
     <row r="42" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="61"/>
-      <c r="C42" s="48"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="29"/>
     </row>
     <row r="43" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="61"/>
-      <c r="C43" s="48"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="29"/>
     </row>
     <row r="44" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="66"/>
-      <c r="C44" s="48"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="29"/>
     </row>
     <row r="45" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="48" t="s">
+      <c r="C45" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="61"/>
-      <c r="C46" s="48" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="61"/>
-      <c r="C47" s="48" t="s">
+      <c r="B47" s="41"/>
+      <c r="C47" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="61"/>
-      <c r="C48" s="48"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="29"/>
     </row>
     <row r="49" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="61"/>
-      <c r="C49" s="48"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="61"/>
-      <c r="C50" s="48"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="29"/>
     </row>
     <row r="51" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="61"/>
-      <c r="C51" s="48"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="29"/>
     </row>
     <row r="52" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="61"/>
-      <c r="C52" s="48"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="29"/>
     </row>
     <row r="53" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="61"/>
-      <c r="C53" s="48"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="29"/>
     </row>
     <row r="54" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="66"/>
-      <c r="C54" s="48"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="29"/>
     </row>
     <row r="55" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="65" t="s">
+      <c r="B55" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="61"/>
-      <c r="C56" s="48" t="s">
+      <c r="B56" s="41"/>
+      <c r="C56" s="29" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="61"/>
-      <c r="C57" s="48" t="s">
+      <c r="B57" s="41"/>
+      <c r="C57" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="61"/>
-      <c r="C58" s="48"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="29"/>
     </row>
     <row r="59" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="61"/>
-      <c r="C59" s="48"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="29"/>
     </row>
     <row r="60" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="61"/>
-      <c r="C60" s="48"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="29"/>
     </row>
     <row r="61" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="61"/>
-      <c r="C61" s="48"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="29"/>
     </row>
     <row r="62" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="61"/>
-      <c r="C62" s="48"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="29"/>
     </row>
     <row r="63" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="61"/>
-      <c r="C63" s="48"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="29"/>
     </row>
     <row r="64" spans="2:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="62"/>
-      <c r="C64" s="49"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="30"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="66" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
